--- a/data_in/furtherInterest.xlsx
+++ b/data_in/furtherInterest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\Desktop\HW_LessonsCopy\BootCampHW\inhabitable_exoplanets_grp_prjt_2\Project2\XLcsv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\Desktop\HW_LessonsCopy\BootCampHW\ETL-Project\data_in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45ECF50B-2776-4304-92AB-2F92ED2EFD74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{05AA142C-1BB4-42F7-B3C5-130D06D4F197}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="103">
   <si>
     <t>Cat</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Animated timeline of discovery, plotted on chart</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=aiFD_LBx2nM</t>
-  </si>
-  <si>
     <t>EXOPLANETS size Comparison | 3D Animation</t>
   </si>
   <si>
@@ -121,6 +118,18 @@
     <t xml:space="preserve">https://www.youtube.com/watch?v=PqEmYU8Y_rI </t>
   </si>
   <si>
+    <t>Exoplanets Update with Professor Paul Delaney</t>
+  </si>
+  <si>
+    <t>78 min</t>
+  </si>
+  <si>
+    <t>Presentation, January 15th, 2020 at the Ontario Science Centre.  Recent exoplanet updates, good graphs and descriptions of what we look at when we study exoplanets.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HrQmHz6RS84</t>
+  </si>
+  <si>
     <t>How the Universe Works: Exoplanets From Hell</t>
   </si>
   <si>
@@ -133,6 +142,15 @@
     <t>https://www.youtube.com/watch?v=8lZNyAH2L6k</t>
   </si>
   <si>
+    <t>Michio Kaku: Future of Humans, Aliens, Space Travel &amp; Physics | Lex Fridman Podcast #45</t>
+  </si>
+  <si>
+    <t>Conversation with famed theoretical physicist speaks to such things as the future of mankind, problems with creating fusion when it's so easy for a star, and many others.  Plenty of analogies and stories.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kD5yc1LQrpQ</t>
+  </si>
+  <si>
     <t>National geo exoplanets 101</t>
   </si>
   <si>
@@ -265,6 +283,30 @@
     <t>https://www.liebertpub.com/doi/10.1089/ast.2017.1729</t>
   </si>
   <si>
+    <t>Exoplanets: A Search for New Worlds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72 min</t>
+  </si>
+  <si>
+    <t>Lecture with Nestor Espinoza, Space Telescope Science Institute- March 3, 2020. some detailed discussions on how we look for exoplanets and how we determine their characteristics.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hnAwLra9Kh8</t>
+  </si>
+  <si>
+    <t>When will Alien Life be Found on Exoplanets?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  29 min</t>
+  </si>
+  <si>
+    <t>Exoplanet astronomer Ryan MacDonald duiscusses our sun and its future and exoplanets around different  star types, how we are able to measure things such as atmospheric conditions of planets trillions of miles away.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0zAo_CXPncY</t>
+  </si>
+  <si>
     <t>c</t>
   </si>
   <si>
@@ -286,52 +328,7 @@
     <t>https://www.youtube.com/channel/UC7_gcs09iThXybpVgjHZ_7g</t>
   </si>
   <si>
-    <t>Exoplanets Update with Professor Paul Delaney</t>
-  </si>
-  <si>
-    <t>78 min</t>
-  </si>
-  <si>
-    <t>Presentation, January 15th, 2020 at the Ontario Science Centre.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HrQmHz6RS84</t>
-  </si>
-  <si>
-    <t>Exoplanets: A Search for New Worlds</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 72 min</t>
-  </si>
-  <si>
-    <t>Nestor Espinoza, Space Telescope Science Institute- March 3, 2020</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hnAwLra9Kh8</t>
-  </si>
-  <si>
-    <t>Michio Kaku: Future of Humans, Aliens, Space Travel &amp; Physics | Lex Fridman Podcast #45</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kD5yc1LQrpQ</t>
-  </si>
-  <si>
-    <t>When will Alien Life be Found on Exoplanets?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 29 min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=0zAo_CXPncY   </t>
-  </si>
-  <si>
-    <t>When will Alien Life be Found on Exoplanets? Ryan MacDonald</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  29 min</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0zAo_CXPncY</t>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=aiFD_LBx2nM </t>
   </si>
 </sst>
 </file>
@@ -815,8 +812,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1172,23 +1172,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="68" style="1" customWidth="1"/>
+    <col min="5" max="5" width="92.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1196,435 +1205,443 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="D20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>3</v>
       </c>
-      <c r="B20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="B22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>3</v>
       </c>
-      <c r="B21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="B23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E22" t="s">
+      <c r="C23" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>86</v>
       </c>
-      <c r="E23" t="s">
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>90</v>
       </c>
-      <c r="E24" t="s">
+    </row>
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="C25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>94</v>
       </c>
-      <c r="E25" t="s">
+    </row>
+    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C26" t="s">
-        <v>34</v>
+      <c r="D26" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
         <v>98</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="D27" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
         <v>101</v>
-      </c>
-      <c r="C28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>